--- a/ig/ch-emed/StructureDefinition-ch-emed-medication.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medication.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -948,21 +948,10 @@
     <t>Package size</t>
   </si>
   <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
+    <t>Specific amount of the drug in the packaged product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
+  </si>
+  <si>
+    <t>.quantity</t>
   </si>
   <si>
     <t>Medication.ingredient</t>
@@ -1095,6 +1084,15 @@
   </si>
   <si>
     <t>Dose per unit</t>
+  </si>
+  <si>
+    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
+  </si>
+  <si>
+    <t>//element(*,DrugCodedType)/Strength</t>
+  </si>
+  <si>
+    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
   </si>
   <si>
     <t>Medication.batch</t>
@@ -1485,17 +1483,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.4140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1504,26 +1502,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="167.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="84.81640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6813,7 +6811,7 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>296</v>
@@ -6824,9 +6822,7 @@
       <c r="M47" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -6884,30 +6880,30 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>301</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6930,16 +6926,16 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6989,7 +6985,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7007,7 +7003,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7018,10 +7014,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7130,10 +7126,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7244,14 +7240,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7273,10 +7269,10 @@
         <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>137</v>
@@ -7331,7 +7327,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7360,10 +7356,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7386,17 +7382,17 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7425,13 +7421,13 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
@@ -7441,7 +7437,7 @@
         <v>174</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -7459,24 +7455,24 @@
         <v>160</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>79</v>
@@ -7501,14 +7497,14 @@
         <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -7537,7 +7533,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -7555,7 +7551,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>88</v>
@@ -7573,21 +7569,21 @@
         <v>160</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7696,10 +7692,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7810,10 +7806,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7839,7 +7835,7 @@
         <v>177</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>179</v>
@@ -7873,11 +7869,11 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -7924,10 +7920,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7953,7 +7949,7 @@
         <v>165</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>251</v>
@@ -8040,10 +8036,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8069,14 +8065,14 @@
         <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8125,7 +8121,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8143,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8154,10 +8150,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8183,14 +8179,12 @@
         <v>296</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8239,31 +8233,31 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL59" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>131</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -8294,7 +8288,7 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>346</v>
@@ -8613,7 +8607,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8635,10 +8629,10 @@
         <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>137</v>
@@ -8693,7 +8687,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medication.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:37:19+00:00</t>
+    <t>2025-12-16T11:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -518,7 +518,7 @@
     <t>A coded concept that defines the type of a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -848,7 +848,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -3238,7 +3238,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>186</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>249</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>283</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>332</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>340</v>
       </c>
@@ -8940,12 +8940,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN65">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
